--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\adapter\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,9 +18,102 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mgrahovac</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mgrahovac:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This value ensures that each run with identical inputs produces identical outputs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_11</t>
+  </si>
+  <si>
+    <t>col_22</t>
+  </si>
+  <si>
+    <t>col_33</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Seed Value</t>
+  </si>
+  <si>
+    <t>Output Path</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>vTest</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +247,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -497,8 +603,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -555,6 +662,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
+  <autoFilter ref="J2:L5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="col_1"/>
+    <tableColumn id="2" name="col_2"/>
+    <tableColumn id="3" name="col_3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
+  <autoFilter ref="J9:L12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="col_11"/>
+    <tableColumn id="2" name="col_22"/>
+    <tableColumn id="3" name="col_33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="run_parameters" displayName="run_parameters" ref="B2:E3" totalsRowShown="0">
+  <autoFilter ref="B2:E3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sample Size"/>
+    <tableColumn id="2" name="Seed Value"/>
+    <tableColumn id="3" name="Output Path"/>
+    <tableColumn id="4" name="Version"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,13 +963,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>165798</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -18,42 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>mgrahovac</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mgrahovac:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This value ensures that each run with identical inputs produces identical outputs</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>a</t>
   </si>
@@ -89,12 +55,6 @@
   </si>
   <si>
     <t>cc</t>
-  </si>
-  <si>
-    <t>Sample Size</t>
-  </si>
-  <si>
-    <t>Seed Value</t>
   </si>
   <si>
     <t>Output Path</t>
@@ -113,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,19 +207,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -689,13 +636,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="run_parameters" displayName="run_parameters" ref="B2:E3" totalsRowShown="0">
-  <autoFilter ref="B2:E3"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Sample Size"/>
-    <tableColumn id="2" name="Seed Value"/>
-    <tableColumn id="3" name="Output Path"/>
-    <tableColumn id="4" name="Version"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
+  <autoFilter ref="B2:C3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Output Path"/>
+    <tableColumn id="2" name="Version"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,11 +908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,12 +924,6 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
@@ -996,17 +935,11 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>165798</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1086,11 +1019,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="22152"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="22155"/>
   </bookViews>
   <sheets>
-    <sheet name="test - Copy" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="xlsx_named_range1">test!$J$16:$K$18</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>a</t>
   </si>
@@ -67,6 +70,21 @@
   </si>
   <si>
     <t>vTest</t>
+  </si>
+  <si>
+    <t>nam_ran_col1</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>val2</t>
+  </si>
+  <si>
+    <t>val3</t>
+  </si>
+  <si>
+    <t>val4</t>
   </si>
 </sst>
 </file>
@@ -909,15 +927,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -934,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -951,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4">
         <v>1</v>
       </c>
@@ -962,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5">
         <v>1</v>
       </c>
@@ -973,7 +991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>11</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>11</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>11</v>
       </c>
@@ -1015,6 +1033,30 @@
       </c>
       <c r="L12">
         <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="xlsx_named_range1">test!$J$16:$K$18</definedName>
+    <definedName name="xlsx_single_col_range">test!$J$21:$J$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -936,7 +937,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>a</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>col1</t>
+  </si>
+  <si>
+    <t>colA</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -668,6 +674,16 @@
     <tableColumn id="2" name="Version"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
+  <autoFilter ref="L21:L25"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="colA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -937,7 +953,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,7 +1066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>18</v>
       </c>
@@ -1066,37 +1082,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J25">
         <v>4</v>
       </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -70,9 +70,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>vTest</t>
-  </si>
-  <si>
     <t>nam_ran_col1</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>v\Test/1.23</t>
   </si>
 </sst>
 </file>
@@ -952,11 +952,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -980,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1060,34 +1063,34 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
         <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.35">
@@ -1119,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\akshaysharma\repos\adapter\adapter\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\adapter\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5FDE2-9290-43E6-8AC0-1433F9BBA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -88,9 +89,6 @@
     <t>nam_ran_col2</t>
   </si>
   <si>
-    <t>col1</t>
-  </si>
-  <si>
     <t>colA</t>
   </si>
   <si>
@@ -98,12 +96,15 @@
   </si>
   <si>
     <t>v\Test/1.23</t>
+  </si>
+  <si>
+    <t>nam_ran_col11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,45 +644,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
-  <autoFilter ref="J2:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
+  <autoFilter ref="J2:L5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="col_1"/>
-    <tableColumn id="2" name="col_2"/>
-    <tableColumn id="3" name="col_3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="col_1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="col_2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="col_3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
-  <autoFilter ref="J9:L12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
+  <autoFilter ref="J9:L12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="col_11"/>
-    <tableColumn id="2" name="col_22"/>
-    <tableColumn id="3" name="col_33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="col_11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="col_22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="col_33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
-  <autoFilter ref="B2:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
+  <autoFilter ref="B2:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Output Path"/>
-    <tableColumn id="2" name="Version"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Output Path"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Version"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
-  <autoFilter ref="L21:L25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
+  <autoFilter ref="L21:L25" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="colA"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="colA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,19 +950,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -978,12 +979,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -995,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4">
         <v>1</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5">
         <v>1</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>11</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>11</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>11</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>17</v>
       </c>
@@ -1085,15 +1086,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
         <v>21</v>
       </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>1</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>2</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>3</v>
       </c>
@@ -1117,12 +1118,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>4</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\adapter\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshaysharma\repos\adapter\adapter\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5FDE2-9290-43E6-8AC0-1433F9BBA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23400"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -18,13 +17,14 @@
   <definedNames>
     <definedName name="xlsx_named_range1">test!$J$16:$K$18</definedName>
     <definedName name="xlsx_single_col_range">test!$J$21:$J$25</definedName>
+    <definedName name="xlsx_single_value_named_range">test!$J$29</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -99,12 +99,15 @@
   </si>
   <si>
     <t>nam_ran_col11</t>
+  </si>
+  <si>
+    <t>single_value_named_range</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,45 +647,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
-  <autoFilter ref="J2:L5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
+  <autoFilter ref="J2:L5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="col_1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="col_2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="col_3"/>
+    <tableColumn id="1" name="col_1"/>
+    <tableColumn id="2" name="col_2"/>
+    <tableColumn id="3" name="col_3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
-  <autoFilter ref="J9:L12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
+  <autoFilter ref="J9:L12"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="col_11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="col_22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="col_33"/>
+    <tableColumn id="1" name="col_11"/>
+    <tableColumn id="2" name="col_22"/>
+    <tableColumn id="3" name="col_33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
-  <autoFilter ref="B2:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
+  <autoFilter ref="B2:C3"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Output Path"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Version"/>
+    <tableColumn id="1" name="Output Path"/>
+    <tableColumn id="2" name="Version"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
-  <autoFilter ref="L21:L25" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
+  <autoFilter ref="L21:L25"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="colA"/>
+    <tableColumn id="1" name="colA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -950,19 +953,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -979,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -996,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J4">
         <v>1</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J5">
         <v>1</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J10">
         <v>11</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J11">
         <v>11</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J12">
         <v>11</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J17" t="s">
         <v>16</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J22">
         <v>1</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J23">
         <v>2</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J24">
         <v>3</v>
       </c>
@@ -1118,12 +1121,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J25">
         <v>4</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshaysharma\repos\adapter\adapter\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\adapter\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,13 +95,13 @@
     <t>d</t>
   </si>
   <si>
-    <t>v\Test/1.23</t>
-  </si>
-  <si>
     <t>nam_ran_col11</t>
   </si>
   <si>
     <t>single_value_named_range</t>
+  </si>
+  <si>
+    <t>shipper_tests</t>
   </si>
 </sst>
 </file>
@@ -957,15 +957,16 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -982,12 +983,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -999,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4">
         <v>1</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5">
         <v>1</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>11</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>11</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>11</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>17</v>
       </c>
@@ -1089,15 +1090,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>1</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>2</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>3</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>4</v>
       </c>
@@ -1129,12 +1130,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="10:12" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>123</v>
       </c>

--- a/adapter/tests/test.xlsx
+++ b/adapter/tests/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\adapter\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792BDEB7-E234-4552-B7B2-7563909D0B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23400"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23040" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="xlsx_single_col_range">test!$J$21:$J$25</definedName>
     <definedName name="xlsx_single_value_named_range">test!$J$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -101,13 +102,13 @@
     <t>single_value_named_range</t>
   </si>
   <si>
-    <t>shipper_tests</t>
+    <t>v123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,45 +648,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
-  <autoFilter ref="J2:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="xlsx_table1" displayName="xlsx_table1" ref="J2:L5" totalsRowShown="0">
+  <autoFilter ref="J2:L5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="col_1"/>
-    <tableColumn id="2" name="col_2"/>
-    <tableColumn id="3" name="col_3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="col_1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="col_2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="col_3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
-  <autoFilter ref="J9:L12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="xlsx_table2" displayName="xlsx_table2" ref="J9:L12" totalsRowShown="0">
+  <autoFilter ref="J9:L12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="col_11"/>
-    <tableColumn id="2" name="col_22"/>
-    <tableColumn id="3" name="col_33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="col_11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="col_22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="col_33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
-  <autoFilter ref="B2:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="run_parameters" displayName="run_parameters" ref="B2:C3" totalsRowShown="0">
+  <autoFilter ref="B2:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Output Path"/>
-    <tableColumn id="2" name="Version"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Output Path"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Version"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
-  <autoFilter ref="L21:L25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="xlsx_single_col_table" displayName="xlsx_single_col_table" ref="L21:L25" totalsRowShown="0">
+  <autoFilter ref="L21:L25" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="colA"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="colA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
